--- a/mkdocs/media/Diag360_Indicateurs.xlsx
+++ b/mkdocs/media/Diag360_Indicateurs.xlsx
@@ -592,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,12 +648,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
         <bgColor rgb="FFFAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1012,7 +1006,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1115,9 +1109,6 @@
     <xf fontId="13" fillId="9" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="10" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1152,10 +1143,10 @@
     <xf fontId="17" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="14" fillId="12" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="11" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="17" fillId="12" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="17" fillId="11" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="16" fillId="10" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,11 +1156,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="18" fillId="13" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="18" fillId="12" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="16" fillId="10" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1180,7 +1168,7 @@
     <xf fontId="17" fillId="0" borderId="23" numFmtId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="14" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="13" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1192,9 +1180,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -1747,13 +1732,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.140625"/>
+    <col customWidth="1" hidden="1" min="1" max="1" style="1" width="0"/>
+    <col min="2" max="2" style="1" width="9.140625"/>
     <col customWidth="1" min="3" max="3" style="1" width="12.7109375"/>
     <col customWidth="1" min="4" max="4" outlineLevel="1" style="1" width="36.28125"/>
     <col customWidth="1" min="5" max="5" outlineLevel="1" style="1" width="18.57421875"/>
@@ -1984,26 +1970,26 @@
       <c r="E13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="37">
-        <v>1</v>
-      </c>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="40">
-        <v>1</v>
-      </c>
-      <c r="M13" s="41">
+      <c r="L13" s="39">
+        <v>1</v>
+      </c>
+      <c r="M13" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2016,32 +2002,32 @@
       <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>0.059999999999999998</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="38">
         <f t="shared" si="1"/>
         <v>0.0060000000000000001</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="41">
         <v>10</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2054,32 +2040,32 @@
       <c r="C15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>0.10000000000000001</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="38">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="41">
         <v>10</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2092,32 +2078,32 @@
       <c r="C16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>0.93999999999999995</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="38">
         <f t="shared" si="1"/>
         <v>0.90600000000000003</v>
       </c>
-      <c r="L16" s="42">
-        <v>0</v>
-      </c>
-      <c r="M16" s="43">
+      <c r="L16" s="41">
+        <v>0</v>
+      </c>
+      <c r="M16" s="42">
         <v>10</v>
       </c>
     </row>
@@ -2130,32 +2116,32 @@
       <c r="C17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="38">
         <f>IF(H17=L17,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2168,32 +2154,32 @@
       <c r="C18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="49">
-        <v>1</v>
-      </c>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="48">
+        <v>1</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="38">
         <f t="shared" ref="K18:K21" si="2">IF((H18-M18)/(L18-M18)&gt;1,1,IF((H18-M18)/(L18-M18)&lt;0,0,(H18-M18)/(L18-M18)))</f>
         <v>0.99995000000000001</v>
       </c>
-      <c r="L18" s="42">
-        <v>0</v>
-      </c>
-      <c r="M18" s="43">
+      <c r="L18" s="41">
+        <v>0</v>
+      </c>
+      <c r="M18" s="42">
         <v>20000</v>
       </c>
     </row>
@@ -2206,32 +2192,32 @@
       <c r="C19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="48">
         <v>1.5</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="38">
         <f t="shared" si="2"/>
         <v>0.99250000000000005</v>
       </c>
-      <c r="L19" s="42">
-        <v>0</v>
-      </c>
-      <c r="M19" s="43">
+      <c r="L19" s="41">
+        <v>0</v>
+      </c>
+      <c r="M19" s="42">
         <v>200</v>
       </c>
     </row>
@@ -2250,26 +2236,26 @@
       <c r="E20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="48">
         <v>2.1000000000000001</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L20" s="42">
-        <v>1</v>
-      </c>
-      <c r="M20" s="43">
+      <c r="L20" s="41">
+        <v>1</v>
+      </c>
+      <c r="M20" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2282,32 +2268,32 @@
       <c r="C21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="48">
         <v>4</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L21" s="42">
-        <v>1</v>
-      </c>
-      <c r="M21" s="43">
+      <c r="L21" s="41">
+        <v>1</v>
+      </c>
+      <c r="M21" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2320,32 +2306,32 @@
       <c r="C22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="48">
         <v>5</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="38">
         <f>IF(H22=L22,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2358,32 +2344,32 @@
       <c r="C23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="48">
         <v>12</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="38">
         <f t="shared" ref="K23:K26" si="3">IF((H23-M23)/(L23-M23)&gt;1,1,IF((H23-M23)/(L23-M23)&lt;0,0,(H23-M23)/(L23-M23)))</f>
         <v>1</v>
       </c>
-      <c r="L23" s="42">
-        <v>1</v>
-      </c>
-      <c r="M23" s="43">
+      <c r="L23" s="41">
+        <v>1</v>
+      </c>
+      <c r="M23" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2396,32 +2382,32 @@
       <c r="C24" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="48">
         <v>54</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="38">
         <f t="shared" si="3"/>
         <v>0.54000000000000004</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="41">
         <v>100</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2434,32 +2420,32 @@
       <c r="C25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="48">
         <v>30000</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="38">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L25" s="42">
-        <v>1</v>
-      </c>
-      <c r="M25" s="43">
+      <c r="L25" s="41">
+        <v>1</v>
+      </c>
+      <c r="M25" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2472,30 +2458,30 @@
       <c r="C26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="38" t="s">
+      <c r="H26" s="48"/>
+      <c r="I26" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L26" s="42">
-        <v>1</v>
-      </c>
-      <c r="M26" s="43">
+      <c r="L26" s="41">
+        <v>1</v>
+      </c>
+      <c r="M26" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2508,32 +2494,32 @@
       <c r="C27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="38">
         <f>IF(H27=L27,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="47" t="s">
+      <c r="M27" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2546,30 +2532,30 @@
       <c r="C28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="38" t="s">
+      <c r="H28" s="48"/>
+      <c r="I28" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="38">
         <f t="shared" ref="K28:K33" si="4">IF((H28-M28)/(L28-M28)&gt;1,1,IF((H28-M28)/(L28-M28)&lt;0,0,(H28-M28)/(L28-M28)))</f>
         <v>0</v>
       </c>
-      <c r="L28" s="42">
-        <v>1</v>
-      </c>
-      <c r="M28" s="43">
+      <c r="L28" s="41">
+        <v>1</v>
+      </c>
+      <c r="M28" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2582,30 +2568,30 @@
       <c r="C29" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="38" t="s">
+      <c r="H29" s="48"/>
+      <c r="I29" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="41">
         <v>21.559999999999999</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2624,24 +2610,24 @@
       <c r="E30" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="38" t="s">
+      <c r="H30" s="48"/>
+      <c r="I30" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <v>10</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2651,35 +2637,35 @@
         <v>1</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="48">
         <v>2</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="38">
         <f t="shared" si="4"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="41">
         <v>5</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2689,35 +2675,35 @@
         <v>1</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="48">
         <v>6</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="38">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L32" s="42">
-        <v>1</v>
-      </c>
-      <c r="M32" s="43">
+      <c r="L32" s="41">
+        <v>1</v>
+      </c>
+      <c r="M32" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2727,35 +2713,35 @@
         <v>1</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="48">
         <v>21</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="38">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L33" s="42">
-        <v>1</v>
-      </c>
-      <c r="M33" s="43">
+      <c r="L33" s="41">
+        <v>1</v>
+      </c>
+      <c r="M33" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2765,35 +2751,35 @@
         <v>1</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="38">
         <f t="shared" ref="K34:K35" si="5">IF(H34=L34,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L34" s="46" t="s">
+      <c r="L34" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="M34" s="47" t="s">
+      <c r="M34" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2803,33 +2789,33 @@
         <v>0</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="38" t="s">
+      <c r="H35" s="36"/>
+      <c r="I35" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="46" t="s">
+      <c r="L35" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="47" t="s">
+      <c r="M35" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2839,33 +2825,33 @@
         <v>0</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="36"/>
+      <c r="I36" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="K36" s="39">
+      <c r="K36" s="38">
         <f t="shared" ref="K36:K41" si="6">IF((H36-M36)/(L36-M36)&gt;1,1,IF((H36-M36)/(L36-M36)&lt;0,0,(H36-M36)/(L36-M36)))</f>
         <v>0</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36" s="41">
         <v>7.2000000000000002</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M36" s="44">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2875,33 +2861,33 @@
         <v>0</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="52" t="s">
+      <c r="H37" s="48"/>
+      <c r="I37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="38">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L37" s="42">
-        <v>0</v>
-      </c>
-      <c r="M37" s="45">
+      <c r="L37" s="41">
+        <v>0</v>
+      </c>
+      <c r="M37" s="44">
         <v>2</v>
       </c>
     </row>
@@ -2911,33 +2897,33 @@
         <v>0</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38" t="s">
+      <c r="H38" s="36"/>
+      <c r="I38" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K38" s="39">
+      <c r="K38" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="42">
-        <v>1</v>
-      </c>
-      <c r="M38" s="43">
+      <c r="L38" s="41">
+        <v>1</v>
+      </c>
+      <c r="M38" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2947,33 +2933,33 @@
         <v>0</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38" t="s">
+      <c r="H39" s="36"/>
+      <c r="I39" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="41">
         <v>20</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2983,33 +2969,33 @@
         <v>0</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38" t="s">
+      <c r="H40" s="36"/>
+      <c r="I40" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="39">
+      <c r="K40" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L40" s="42">
+      <c r="L40" s="41">
         <v>15</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="44">
         <v>0</v>
       </c>
     </row>
@@ -3019,33 +3005,33 @@
         <v>0</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="38" t="s">
+      <c r="H41" s="48"/>
+      <c r="I41" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="39">
+      <c r="K41" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L41" s="42">
-        <v>1</v>
-      </c>
-      <c r="M41" s="43">
+      <c r="L41" s="41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3055,33 +3041,33 @@
         <v>0</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="38" t="s">
+      <c r="H42" s="36"/>
+      <c r="I42" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="39">
+      <c r="K42" s="38">
         <f>IF(H42=L42,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L42" s="46" t="s">
+      <c r="L42" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="47" t="s">
+      <c r="M42" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3091,33 +3077,33 @@
         <v>0</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="38" t="s">
+      <c r="H43" s="48"/>
+      <c r="I43" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="38">
         <f t="shared" ref="K43:K51" si="7">IF((H43-M43)/(L43-M43)&gt;1,1,IF((H43-M43)/(L43-M43)&lt;0,0,(H43-M43)/(L43-M43)))</f>
         <v>0</v>
       </c>
-      <c r="L43" s="42">
+      <c r="L43" s="41">
         <v>10</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="44">
         <v>0</v>
       </c>
     </row>
@@ -3127,33 +3113,33 @@
         <v>0</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="38" t="s">
+      <c r="H44" s="48"/>
+      <c r="I44" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K44" s="39">
+      <c r="K44" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L44" s="41">
         <v>100</v>
       </c>
-      <c r="M44" s="43">
+      <c r="M44" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3163,33 +3149,33 @@
         <v>0</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="38" t="s">
+      <c r="H45" s="48"/>
+      <c r="I45" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K45" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L45" s="41">
         <v>5</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="44">
         <v>1</v>
       </c>
     </row>
@@ -3199,33 +3185,33 @@
         <v>0</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="38" t="s">
+      <c r="H46" s="48"/>
+      <c r="I46" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="39">
+      <c r="K46" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L46" s="42">
-        <v>1</v>
-      </c>
-      <c r="M46" s="43">
+      <c r="L46" s="41">
+        <v>1</v>
+      </c>
+      <c r="M46" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3235,33 +3221,33 @@
         <v>0</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38" t="s">
+      <c r="H47" s="36"/>
+      <c r="I47" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K47" s="38">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L47" s="53">
-        <v>0</v>
-      </c>
-      <c r="M47" s="54">
+      <c r="L47" s="51">
+        <v>0</v>
+      </c>
+      <c r="M47" s="52">
         <v>0.29999999999999999</v>
       </c>
     </row>
@@ -3271,33 +3257,33 @@
         <v>0</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="38" t="s">
+      <c r="H48" s="48"/>
+      <c r="I48" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="K48" s="39">
+      <c r="K48" s="38">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L48" s="42">
+      <c r="L48" s="41">
         <v>100</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="44">
         <v>150</v>
       </c>
     </row>
@@ -3307,35 +3293,35 @@
         <v>1</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="36">
         <v>0.070000000000000007</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="I49" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="K49" s="39">
+      <c r="K49" s="38">
         <f t="shared" si="7"/>
         <v>0.070000000000000007</v>
       </c>
-      <c r="L49" s="42">
-        <v>1</v>
-      </c>
-      <c r="M49" s="43">
+      <c r="L49" s="41">
+        <v>1</v>
+      </c>
+      <c r="M49" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3345,35 +3331,35 @@
         <v>1</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="36">
         <v>0.10000000000000001</v>
       </c>
-      <c r="I50" s="38" t="s">
+      <c r="I50" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K50" s="39">
+      <c r="K50" s="38">
         <f t="shared" si="7"/>
         <v>0.10000000000000001</v>
       </c>
-      <c r="L50" s="42">
-        <v>1</v>
-      </c>
-      <c r="M50" s="43">
+      <c r="L50" s="41">
+        <v>1</v>
+      </c>
+      <c r="M50" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3383,35 +3369,35 @@
         <v>1</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="36">
         <v>0.34999999999999998</v>
       </c>
-      <c r="I51" s="38" t="s">
+      <c r="I51" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="39">
+      <c r="K51" s="38">
         <f t="shared" si="7"/>
         <v>0.34999999999999998</v>
       </c>
-      <c r="L51" s="42">
-        <v>1</v>
-      </c>
-      <c r="M51" s="43">
+      <c r="L51" s="41">
+        <v>1</v>
+      </c>
+      <c r="M51" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3421,35 +3407,35 @@
         <v>1</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="G52" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I52" s="38" t="s">
+      <c r="I52" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52" s="38">
         <f>IF(H52=L52,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L52" s="46" t="s">
+      <c r="L52" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M52" s="47" t="s">
+      <c r="M52" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3459,35 +3445,35 @@
         <v>1</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="44" t="s">
+      <c r="G53" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H53" s="49">
+      <c r="H53" s="48">
         <v>1.2</v>
       </c>
-      <c r="I53" s="38" t="s">
+      <c r="I53" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="39">
+      <c r="K53" s="38">
         <f t="shared" ref="K53:K54" si="8">IF((H53-M53)/(L53-M53)&gt;1,1,IF((H53-M53)/(L53-M53)&lt;0,0,(H53-M53)/(L53-M53)))</f>
         <v>1</v>
       </c>
-      <c r="L53" s="42">
-        <v>1</v>
-      </c>
-      <c r="M53" s="43">
+      <c r="L53" s="41">
+        <v>1</v>
+      </c>
+      <c r="M53" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3497,35 +3483,35 @@
         <v>1</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="48">
         <v>1.5</v>
       </c>
-      <c r="I54" s="38" t="s">
+      <c r="I54" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="39">
+      <c r="K54" s="38">
         <f t="shared" si="8"/>
         <v>0.94999999999999996</v>
       </c>
-      <c r="L54" s="42">
-        <v>0</v>
-      </c>
-      <c r="M54" s="45">
+      <c r="L54" s="41">
+        <v>0</v>
+      </c>
+      <c r="M54" s="44">
         <v>30</v>
       </c>
     </row>
@@ -3535,35 +3521,35 @@
         <v>1</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="48">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I55" s="38" t="s">
+      <c r="I55" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K55" s="39">
+      <c r="K55" s="38">
         <f t="shared" ref="K55:K58" si="9">IF(H55=L55,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="46" t="s">
+      <c r="L55" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="47" t="s">
+      <c r="M55" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3573,35 +3559,35 @@
         <v>1</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="48">
         <v>3</v>
       </c>
-      <c r="I56" s="38" t="s">
+      <c r="I56" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K56" s="39">
+      <c r="K56" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L56" s="46" t="s">
+      <c r="L56" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M56" s="47" t="s">
+      <c r="M56" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3611,35 +3597,35 @@
         <v>1</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="36" t="s">
+      <c r="G57" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="49" t="s">
+      <c r="H57" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I57" s="38" t="s">
+      <c r="I57" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="K57" s="39">
+      <c r="K57" s="38">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="M57" s="47" t="s">
+      <c r="M57" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3649,35 +3635,35 @@
         <v>1</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="49" t="s">
+      <c r="H58" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="38" t="s">
+      <c r="I58" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="K58" s="39">
+      <c r="K58" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L58" s="46" t="s">
+      <c r="L58" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M58" s="47" t="s">
+      <c r="M58" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3687,33 +3673,33 @@
         <v>0</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G59" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="49"/>
-      <c r="I59" s="38" t="s">
+      <c r="H59" s="48"/>
+      <c r="I59" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="K59" s="39">
+      <c r="K59" s="38">
         <f>IF((H59-M59)/(L59-M59)&gt;1,1,IF((H59-M59)/(L59-M59)&lt;0,0,(H59-M59)/(L59-M59)))</f>
         <v>0</v>
       </c>
-      <c r="L59" s="42">
-        <v>1</v>
-      </c>
-      <c r="M59" s="43">
+      <c r="L59" s="41">
+        <v>1</v>
+      </c>
+      <c r="M59" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3723,33 +3709,33 @@
         <v>0</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="48" t="s">
+      <c r="F60" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="G60" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="38" t="s">
+      <c r="H60" s="36"/>
+      <c r="I60" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K60" s="39">
+      <c r="K60" s="38">
         <f t="shared" ref="K60:K61" si="10">IF(H60=L60,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="46" t="s">
+      <c r="L60" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M60" s="47" t="s">
+      <c r="M60" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3759,38 +3745,38 @@
         <v>0</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H61" s="56"/>
-      <c r="I61" s="38" t="s">
+      <c r="H61" s="54"/>
+      <c r="I61" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K61" s="57">
+      <c r="K61" s="55">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L61" s="46" t="s">
+      <c r="L61" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M61" s="47" t="s">
+      <c r="M61" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="K62" s="58"/>
+      <c r="K62" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="C11:I61"/>
@@ -3834,7 +3820,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00830038-00AF-4893-8A4A-003D00490004}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005300DC-00F1-4263-931E-004600F100B3}">
             <xm:f>""</xm:f>
             <x14:dxf>
               <font>
@@ -3851,7 +3837,7 @@
           <xm:sqref>H13:H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D90055-0098-4903-8284-00B3004400C0}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000F006F-0088-4808-B045-00AD00250078}">
             <xm:f>""</xm:f>
             <x14:dxf>
               <font>
@@ -3893,1693 +3879,1693 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59" t="str">
+      <c r="A2" s="57" t="str">
         <f>Indicateurs!C12</f>
         <v>Vitaux</v>
       </c>
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="57" t="str">
         <f>Indicateurs!D12</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C2" s="59" t="str">
+      <c r="C2" s="57" t="str">
         <f>Indicateurs!E12</f>
         <v>Transformation</v>
       </c>
-      <c r="D2" s="59" t="str">
+      <c r="D2" s="57" t="str">
         <f>Indicateurs!F12</f>
         <v xml:space="preserve">Adéquation théorique entre la production agricole et la consommation du territoire</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="58">
         <f>Indicateurs!H12</f>
         <v>0.040000000000000001</v>
       </c>
-      <c r="F2" s="59" t="str">
+      <c r="F2" s="57" t="str">
         <f>Indicateurs!G12</f>
         <v>%</v>
       </c>
-      <c r="G2" s="59" t="str">
+      <c r="G2" s="57" t="str">
         <f>Indicateurs!I12</f>
         <v xml:space="preserve">Open dataCRATER ; Greniers d’abondance</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="59">
         <f>Indicateurs!K12</f>
         <v>0.95999999999999996</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="59" t="str">
+      <c r="A3" s="57" t="str">
         <f>Indicateurs!C13</f>
         <v>Vitaux</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="57" t="str">
         <f>Indicateurs!D13</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C3" s="59" t="str">
+      <c r="C3" s="57" t="str">
         <f>Indicateurs!E13</f>
         <v>Subsistance</v>
       </c>
-      <c r="D3" s="59" t="str">
+      <c r="D3" s="57" t="str">
         <f>Indicateurs!F13</f>
         <v xml:space="preserve">Évolution des actifs agricoles entre 2008 et 2019</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="58">
         <f>Indicateurs!H13</f>
         <v>1</v>
       </c>
-      <c r="F3" s="59" t="str">
+      <c r="F3" s="57" t="str">
         <f>Indicateurs!G13</f>
         <v>%</v>
       </c>
-      <c r="G3" s="59" t="str">
+      <c r="G3" s="57" t="str">
         <f>Indicateurs!I13</f>
         <v>Interne</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="59">
         <f>Indicateurs!K13</f>
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59" t="str">
+      <c r="A4" s="57" t="str">
         <f>Indicateurs!C14</f>
         <v>Vitaux</v>
       </c>
-      <c r="B4" s="59" t="str">
+      <c r="B4" s="57" t="str">
         <f>Indicateurs!D14</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C4" s="59" t="str">
+      <c r="C4" s="57" t="str">
         <f>Indicateurs!E14</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D4" s="59" t="str">
+      <c r="D4" s="57" t="str">
         <f>Indicateurs!F14</f>
         <v xml:space="preserve">Part de la surface agricole en agriculture Biologique sur la surface agricole utile</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="58">
         <f>Indicateurs!H14</f>
         <v>0.059999999999999998</v>
       </c>
-      <c r="F4" s="59" t="str">
+      <c r="F4" s="57" t="str">
         <f>Indicateurs!G14</f>
         <v>%</v>
       </c>
-      <c r="G4" s="59" t="str">
+      <c r="G4" s="57" t="str">
         <f>Indicateurs!I14</f>
         <v>Interne</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="59">
         <f>Indicateurs!K14</f>
         <v>0.0060000000000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="59" t="str">
+      <c r="A5" s="57" t="str">
         <f>Indicateurs!C15</f>
         <v>Vitaux</v>
       </c>
-      <c r="B5" s="59" t="str">
+      <c r="B5" s="57" t="str">
         <f>Indicateurs!D15</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C5" s="59" t="str">
+      <c r="C5" s="57" t="str">
         <f>Indicateurs!E15</f>
         <v>Subsistance</v>
       </c>
-      <c r="D5" s="59" t="str">
+      <c r="D5" s="57" t="str">
         <f>Indicateurs!F15</f>
         <v xml:space="preserve">Part du territoire en alerte sécheresse estivale pour les eaux superficielles </v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="58">
         <f>Indicateurs!H15</f>
         <v>0.10000000000000001</v>
       </c>
-      <c r="F5" s="59" t="str">
+      <c r="F5" s="57" t="str">
         <f>Indicateurs!G15</f>
         <v xml:space="preserve">Part du territoire exprimée en %</v>
       </c>
-      <c r="G5" s="59" t="str">
+      <c r="G5" s="57" t="str">
         <f>Indicateurs!I15</f>
         <v>Interne</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="59">
         <f>Indicateurs!K15</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="59" t="str">
+      <c r="A6" s="57" t="str">
         <f>Indicateurs!C16</f>
         <v>Vitaux</v>
       </c>
-      <c r="B6" s="59" t="str">
+      <c r="B6" s="57" t="str">
         <f>Indicateurs!D16</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C6" s="59" t="str">
+      <c r="C6" s="57" t="str">
         <f>Indicateurs!E16</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D6" s="59" t="str">
+      <c r="D6" s="57" t="str">
         <f>Indicateurs!F16</f>
         <v xml:space="preserve">Taux de conformité microbiologique de l’eau au robinet</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="58">
         <f>Indicateurs!H16</f>
         <v>0.93999999999999995</v>
       </c>
-      <c r="F6" s="59" t="str">
+      <c r="F6" s="57" t="str">
         <f>Indicateurs!G16</f>
         <v>%</v>
       </c>
-      <c r="G6" s="59" t="str">
+      <c r="G6" s="57" t="str">
         <f>Indicateurs!I16</f>
         <v xml:space="preserve">Eaufrance.fr ; Opten data</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="59">
         <f>Indicateurs!K16</f>
         <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="59" t="str">
+      <c r="A7" s="57" t="str">
         <f>Indicateurs!C17</f>
         <v>Vitaux</v>
       </c>
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="57" t="str">
         <f>Indicateurs!D17</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C7" s="59" t="str">
+      <c r="C7" s="57" t="str">
         <f>Indicateurs!E17</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D7" s="59" t="str">
+      <c r="D7" s="57" t="str">
         <f>Indicateurs!F17</f>
         <v xml:space="preserve">Taux de conformité des stations d’épuration </v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="58">
         <f>Indicateurs!H17</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="F7" s="59" t="str">
+      <c r="F7" s="57" t="str">
         <f>Indicateurs!G17</f>
         <v>%</v>
       </c>
-      <c r="G7" s="59" t="str">
+      <c r="G7" s="57" t="str">
         <f>Indicateurs!I17</f>
         <v>Interne</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="59">
         <f>Indicateurs!K17</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="59" t="str">
+      <c r="A8" s="57" t="str">
         <f>Indicateurs!C18</f>
         <v>Vitaux</v>
       </c>
-      <c r="B8" s="59" t="str">
+      <c r="B8" s="57" t="str">
         <f>Indicateurs!D18</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C8" s="59" t="str">
+      <c r="C8" s="57" t="str">
         <f>Indicateurs!E18</f>
         <v>Subsistance</v>
       </c>
-      <c r="D8" s="59" t="str">
+      <c r="D8" s="57" t="str">
         <f>Indicateurs!F18</f>
         <v xml:space="preserve">Nombre de fontaines publiques</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="58">
         <f>Indicateurs!H18</f>
         <v>1</v>
       </c>
-      <c r="F8" s="59" t="str">
+      <c r="F8" s="57" t="str">
         <f>Indicateurs!G18</f>
         <v xml:space="preserve">/ 1000 habitants</v>
       </c>
-      <c r="G8" s="59" t="str">
+      <c r="G8" s="57" t="str">
         <f>Indicateurs!I18</f>
         <v xml:space="preserve">Eau France ; Open data</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="59">
         <f>Indicateurs!K18</f>
         <v>0.99995000000000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="59" t="str">
+      <c r="A9" s="57" t="str">
         <f>Indicateurs!C19</f>
         <v>Vitaux</v>
       </c>
-      <c r="B9" s="59" t="str">
+      <c r="B9" s="57" t="str">
         <f>Indicateurs!D19</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C9" s="59" t="str">
+      <c r="C9" s="57" t="str">
         <f>Indicateurs!E19</f>
         <v xml:space="preserve">Gestion de crise</v>
       </c>
-      <c r="D9" s="59" t="str">
+      <c r="D9" s="57" t="str">
         <f>Indicateurs!F19</f>
         <v xml:space="preserve">Fréquence des interruptions de service non programmées</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="58">
         <f>Indicateurs!H19</f>
         <v>1.5</v>
       </c>
-      <c r="F9" s="59" t="str">
+      <c r="F9" s="57" t="str">
         <f>Indicateurs!G19</f>
         <v xml:space="preserve">/ 1000 abonnés</v>
       </c>
-      <c r="G9" s="59" t="str">
+      <c r="G9" s="57" t="str">
         <f>Indicateurs!I19</f>
         <v xml:space="preserve">ODDetT ; Open data</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="59">
         <f>Indicateurs!K19</f>
         <v>0.99250000000000005</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="59" t="str">
+      <c r="A10" s="57" t="str">
         <f>Indicateurs!C20</f>
         <v>Vitaux</v>
       </c>
-      <c r="B10" s="59" t="str">
+      <c r="B10" s="57" t="str">
         <f>Indicateurs!D20</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C10" s="59" t="str">
+      <c r="C10" s="57" t="str">
         <f>Indicateurs!E20</f>
         <v>Subsistance</v>
       </c>
-      <c r="D10" s="59" t="str">
+      <c r="D10" s="57" t="str">
         <f>Indicateurs!F20</f>
         <v xml:space="preserve">Nombre de marchés de producteurs</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="58">
         <f>Indicateurs!H20</f>
         <v>2.1000000000000001</v>
       </c>
-      <c r="F10" s="59" t="str">
+      <c r="F10" s="57" t="str">
         <f>Indicateurs!G20</f>
         <v xml:space="preserve">/ 1000 habitants</v>
       </c>
-      <c r="G10" s="59" t="str">
+      <c r="G10" s="57" t="str">
         <f>Indicateurs!I20</f>
         <v xml:space="preserve">Eau France ; Open data</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="59">
         <f>Indicateurs!K20</f>
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="str">
+      <c r="A11" s="57" t="str">
         <f>Indicateurs!C21</f>
         <v>Vitaux</v>
       </c>
-      <c r="B11" s="59" t="str">
+      <c r="B11" s="57" t="str">
         <f>Indicateurs!D21</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C11" s="59" t="str">
+      <c r="C11" s="57" t="str">
         <f>Indicateurs!E21</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D11" s="59" t="str">
+      <c r="D11" s="57" t="str">
         <f>Indicateurs!F21</f>
         <v xml:space="preserve">Indice de Fréquence de Traitement</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="58">
         <f>Indicateurs!H21</f>
         <v>4</v>
       </c>
-      <c r="F11" s="59" t="str">
+      <c r="F11" s="57" t="str">
         <f>Indicateurs!G21</f>
         <v>-</v>
       </c>
-      <c r="G11" s="59" t="str">
+      <c r="G11" s="57" t="str">
         <f>Indicateurs!I21</f>
         <v xml:space="preserve">Statistiques locales ; INSEE ; Open data</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="59">
         <f>Indicateurs!K21</f>
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="59" t="str">
+      <c r="A12" s="57" t="str">
         <f>Indicateurs!C22</f>
         <v>Vitaux</v>
       </c>
-      <c r="B12" s="59" t="str">
+      <c r="B12" s="57" t="str">
         <f>Indicateurs!D22</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C12" s="59" t="str">
+      <c r="C12" s="57" t="str">
         <f>Indicateurs!E22</f>
         <v xml:space="preserve">Gestion de crise</v>
       </c>
-      <c r="D12" s="59" t="str">
+      <c r="D12" s="57" t="str">
         <f>Indicateurs!F22</f>
         <v xml:space="preserve">Nombre de sources fournissant au moins 5% de la capacité totale d’approvisionnement en eau du territoire</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="58">
         <f>Indicateurs!H22</f>
         <v>5</v>
       </c>
-      <c r="F12" s="59" t="str">
+      <c r="F12" s="57" t="str">
         <f>Indicateurs!G22</f>
         <v>-</v>
       </c>
-      <c r="G12" s="59" t="str">
+      <c r="G12" s="57" t="str">
         <f>Indicateurs!I22</f>
         <v xml:space="preserve">Gest’Eau ; Interne</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="59">
         <f>Indicateurs!K22</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="str">
+      <c r="A13" s="57" t="str">
         <f>Indicateurs!C23</f>
         <v>Vitaux</v>
       </c>
-      <c r="B13" s="59" t="str">
+      <c r="B13" s="57" t="str">
         <f>Indicateurs!D23</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C13" s="59" t="str">
+      <c r="C13" s="57" t="str">
         <f>Indicateurs!E23</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D13" s="59" t="str">
+      <c r="D13" s="57" t="str">
         <f>Indicateurs!F23</f>
         <v xml:space="preserve">Score « Haute Valeur Naturelle »</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="58">
         <f>Indicateurs!H23</f>
         <v>12</v>
       </c>
-      <c r="F13" s="59" t="str">
+      <c r="F13" s="57" t="str">
         <f>Indicateurs!G23</f>
         <v>-</v>
       </c>
-      <c r="G13" s="59" t="str">
+      <c r="G13" s="57" t="str">
         <f>Indicateurs!I23</f>
         <v xml:space="preserve">Territoires au futur ; Shift Project ; Open Data</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="59">
         <f>Indicateurs!K23</f>
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="str">
+      <c r="A14" s="57" t="str">
         <f>Indicateurs!C24</f>
         <v>Vitaux</v>
       </c>
-      <c r="B14" s="59" t="str">
+      <c r="B14" s="57" t="str">
         <f>Indicateurs!D24</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C14" s="59" t="str">
+      <c r="C14" s="57" t="str">
         <f>Indicateurs!E24</f>
         <v>Transformation</v>
       </c>
-      <c r="D14" s="59" t="str">
+      <c r="D14" s="57" t="str">
         <f>Indicateurs!F24</f>
         <v xml:space="preserve">Prélèvements d’eau à usage domestique par habitant et par an</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="58">
         <f>Indicateurs!H24</f>
         <v>54</v>
       </c>
-      <c r="F14" s="59" t="str">
+      <c r="F14" s="57" t="str">
         <f>Indicateurs!G24</f>
         <v xml:space="preserve">milliers de m3 rapporté au nombre d’habitant</v>
       </c>
-      <c r="G14" s="59" t="str">
+      <c r="G14" s="57" t="str">
         <f>Indicateurs!I24</f>
         <v>Interne</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="59">
         <f>Indicateurs!K24</f>
         <v>0.54000000000000004</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="str">
+      <c r="A15" s="57" t="str">
         <f>Indicateurs!C25</f>
         <v>Vitaux</v>
       </c>
-      <c r="B15" s="59" t="str">
+      <c r="B15" s="57" t="str">
         <f>Indicateurs!D25</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C15" s="59" t="str">
+      <c r="C15" s="57" t="str">
         <f>Indicateurs!E25</f>
         <v>Transformation</v>
       </c>
-      <c r="D15" s="59" t="str">
+      <c r="D15" s="57" t="str">
         <f>Indicateurs!F25</f>
         <v xml:space="preserve">Taux de perte dans les réseaux d'eau potable</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="58">
         <f>Indicateurs!H25</f>
         <v>30000</v>
       </c>
-      <c r="F15" s="59" t="str">
+      <c r="F15" s="57" t="str">
         <f>Indicateurs!G25</f>
         <v>m3 /km/j</v>
       </c>
-      <c r="G15" s="59" t="str">
+      <c r="G15" s="57" t="str">
         <f>Indicateurs!I25</f>
         <v xml:space="preserve">Territoire au Futur ; Shift Project ; Open data</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="59">
         <f>Indicateurs!K25</f>
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="59" t="str">
+      <c r="A16" s="57" t="str">
         <f>Indicateurs!C26</f>
         <v>Vitaux</v>
       </c>
-      <c r="B16" s="59" t="str">
+      <c r="B16" s="57" t="str">
         <f>Indicateurs!D26</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C16" s="59" t="str">
+      <c r="C16" s="57" t="str">
         <f>Indicateurs!E26</f>
         <v>Subsistance</v>
       </c>
-      <c r="D16" s="59" t="str">
+      <c r="D16" s="57" t="str">
         <f>Indicateurs!F26</f>
         <v xml:space="preserve">Existence d’une tarification progressive de l’eau</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="58">
         <f>Indicateurs!H26</f>
         <v>0</v>
       </c>
-      <c r="F16" s="59" t="str">
+      <c r="F16" s="57" t="str">
         <f>Indicateurs!G26</f>
         <v>-</v>
       </c>
-      <c r="G16" s="59" t="str">
+      <c r="G16" s="57" t="str">
         <f>Indicateurs!I26</f>
         <v xml:space="preserve">Territoire au Futur ; Shift Project ; Open data</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="59">
         <f>Indicateurs!K26</f>
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="59" t="str">
+      <c r="A17" s="57" t="str">
         <f>Indicateurs!C27</f>
         <v>Vitaux</v>
       </c>
-      <c r="B17" s="59" t="str">
+      <c r="B17" s="57" t="str">
         <f>Indicateurs!D27</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C17" s="59" t="str">
+      <c r="C17" s="57" t="str">
         <f>Indicateurs!E27</f>
         <v>Transformation</v>
       </c>
-      <c r="D17" s="59" t="str">
+      <c r="D17" s="57" t="str">
         <f>Indicateurs!F27</f>
         <v xml:space="preserve">Adoption d’un Projet Alimentaire Territorial</v>
       </c>
-      <c r="E17" s="61" t="str">
+      <c r="E17" s="58" t="str">
         <f>Indicateurs!H27</f>
         <v>Non</v>
       </c>
-      <c r="F17" s="59" t="str">
+      <c r="F17" s="57" t="str">
         <f>Indicateurs!G27</f>
         <v>-</v>
       </c>
-      <c r="G17" s="59" t="str">
+      <c r="G17" s="57" t="str">
         <f>Indicateurs!I27</f>
         <v xml:space="preserve">Agriculture.gouv.fr ; interne</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="59">
         <f>Indicateurs!K27</f>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59" t="str">
+      <c r="A18" s="57" t="str">
         <f>Indicateurs!C28</f>
         <v>Vitaux</v>
       </c>
-      <c r="B18" s="59" t="str">
+      <c r="B18" s="57" t="str">
         <f>Indicateurs!D28</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C18" s="59" t="str">
+      <c r="C18" s="57" t="str">
         <f>Indicateurs!E28</f>
         <v xml:space="preserve">Gestion de crise</v>
       </c>
-      <c r="D18" s="59" t="str">
+      <c r="D18" s="57" t="str">
         <f>Indicateurs!F28</f>
         <v xml:space="preserve">Existence de stocks stratégiques d’eau et/ou de moyens de potabilisation</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="58">
         <f>Indicateurs!H28</f>
         <v>0</v>
       </c>
-      <c r="F18" s="59" t="str">
+      <c r="F18" s="57" t="str">
         <f>Indicateurs!G28</f>
         <v>-</v>
       </c>
-      <c r="G18" s="59" t="str">
+      <c r="G18" s="57" t="str">
         <f>Indicateurs!I28</f>
         <v xml:space="preserve">Observatoire des Territoires ; Agence Bio ; Open data</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="59">
         <f>Indicateurs!K28</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="59" t="str">
+      <c r="A19" s="57" t="str">
         <f>Indicateurs!C29</f>
         <v>Vitaux</v>
       </c>
-      <c r="B19" s="59" t="str">
+      <c r="B19" s="57" t="str">
         <f>Indicateurs!D29</f>
         <v xml:space="preserve">Avoir accès à l'eau potable</v>
       </c>
-      <c r="C19" s="59" t="str">
+      <c r="C19" s="57" t="str">
         <f>Indicateurs!E29</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D19" s="59" t="str">
+      <c r="D19" s="57" t="str">
         <f>Indicateurs!F29</f>
         <v xml:space="preserve">Couverture effective du territoire par un outil de planification et de gestion de l’eau (SAGE, PGRE, contrat de milieu)</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="58">
         <f>Indicateurs!H29</f>
         <v>0</v>
       </c>
-      <c r="F19" s="59" t="str">
+      <c r="F19" s="57" t="str">
         <f>Indicateurs!G29</f>
         <v>-</v>
       </c>
-      <c r="G19" s="59" t="str">
+      <c r="G19" s="57" t="str">
         <f>Indicateurs!I29</f>
         <v xml:space="preserve">Carte Adonis ; Solagro ; Open data</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="59">
         <f>Indicateurs!K29</f>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="59" t="str">
+      <c r="A20" s="57" t="str">
         <f>Indicateurs!C30</f>
         <v>Vitaux</v>
       </c>
-      <c r="B20" s="59" t="str">
+      <c r="B20" s="57" t="str">
         <f>Indicateurs!D30</f>
         <v xml:space="preserve">Se nourir</v>
       </c>
-      <c r="C20" s="59" t="str">
+      <c r="C20" s="57" t="str">
         <f>Indicateurs!E30</f>
         <v>Subsistance</v>
       </c>
-      <c r="D20" s="59" t="str">
+      <c r="D20" s="57" t="str">
         <f>Indicateurs!F30</f>
         <v xml:space="preserve">Accessibilité théorique aux commerces alimentaires en vélo</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="58">
         <f>Indicateurs!H30</f>
         <v>0</v>
       </c>
-      <c r="F20" s="59" t="str">
+      <c r="F20" s="57" t="str">
         <f>Indicateurs!G30</f>
         <v>%</v>
       </c>
-      <c r="G20" s="59" t="str">
+      <c r="G20" s="57" t="str">
         <f>Indicateurs!I30</f>
         <v xml:space="preserve">CRATER ; open data ; sur la base de travaux de Solagro</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="59">
         <f>Indicateurs!K30</f>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="59" t="str">
+      <c r="A21" s="57" t="str">
         <f>Indicateurs!C31</f>
         <v>Induits</v>
       </c>
-      <c r="B21" s="59" t="str">
+      <c r="B21" s="57" t="str">
         <f>Indicateurs!D31</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C21" s="59" t="str">
+      <c r="C21" s="57" t="str">
         <f>Indicateurs!E31</f>
         <v>Subsistance </v>
       </c>
-      <c r="D21" s="59" t="str">
+      <c r="D21" s="57" t="str">
         <f>Indicateurs!F31</f>
         <v xml:space="preserve">Taux d’actifs et d’emplois</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="58">
         <f>Indicateurs!H31</f>
         <v>2</v>
       </c>
-      <c r="F21" s="59" t="str">
+      <c r="F21" s="57" t="str">
         <f>Indicateurs!G31</f>
         <v>-</v>
       </c>
-      <c r="G21" s="59" t="str">
+      <c r="G21" s="57" t="str">
         <f>Indicateurs!I31</f>
         <v>Interne</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="59">
         <f>Indicateurs!K31</f>
         <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="59" t="str">
+      <c r="A22" s="57" t="str">
         <f>Indicateurs!C32</f>
         <v>Induits</v>
       </c>
-      <c r="B22" s="59" t="str">
+      <c r="B22" s="57" t="str">
         <f>Indicateurs!D32</f>
         <v xml:space="preserve">Avoir accès à l'énergie</v>
       </c>
-      <c r="C22" s="59" t="str">
+      <c r="C22" s="57" t="str">
         <f>Indicateurs!E32</f>
         <v>Transformation</v>
       </c>
-      <c r="D22" s="59" t="str">
+      <c r="D22" s="57" t="str">
         <f>Indicateurs!F32</f>
         <v xml:space="preserve">Émissions de gaz à effet de serre énergétiques territoriales par habitant</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="58">
         <f>Indicateurs!H32</f>
         <v>6</v>
       </c>
-      <c r="F22" s="59" t="str">
+      <c r="F22" s="57" t="str">
         <f>Indicateurs!G32</f>
         <v>teqCO2/hab</v>
       </c>
-      <c r="G22" s="59" t="str">
+      <c r="G22" s="57" t="str">
         <f>Indicateurs!I32</f>
         <v>Interne</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="59">
         <f>Indicateurs!K32</f>
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="59" t="str">
+      <c r="A23" s="57" t="str">
         <f>Indicateurs!C33</f>
         <v>Induits</v>
       </c>
-      <c r="B23" s="59" t="str">
+      <c r="B23" s="57" t="str">
         <f>Indicateurs!D33</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C23" s="59" t="str">
+      <c r="C23" s="57" t="str">
         <f>Indicateurs!E33</f>
         <v>Subsistance </v>
       </c>
-      <c r="D23" s="59" t="str">
+      <c r="D23" s="57" t="str">
         <f>Indicateurs!F33</f>
         <v xml:space="preserve">Nombre d’équipements total</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="58">
         <f>Indicateurs!H33</f>
         <v>21</v>
       </c>
-      <c r="F23" s="59" t="str">
+      <c r="F23" s="57" t="str">
         <f>Indicateurs!G33</f>
         <v xml:space="preserve">/ 1000 habitants</v>
       </c>
-      <c r="G23" s="59" t="str">
+      <c r="G23" s="57" t="str">
         <f>Indicateurs!I33</f>
         <v>Interne</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="59">
         <f>Indicateurs!K33</f>
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="59" t="str">
+      <c r="A24" s="57" t="str">
         <f>Indicateurs!C34</f>
         <v>Induits</v>
       </c>
-      <c r="B24" s="59" t="str">
+      <c r="B24" s="57" t="str">
         <f>Indicateurs!D34</f>
         <v xml:space="preserve">Avoir accès à l'énergie</v>
       </c>
-      <c r="C24" s="59" t="str">
+      <c r="C24" s="57" t="str">
         <f>Indicateurs!E34</f>
         <v>Transformation</v>
       </c>
-      <c r="D24" s="59" t="str">
+      <c r="D24" s="57" t="str">
         <f>Indicateurs!F34</f>
         <v xml:space="preserve">Existence d'un plan de sobriété énergétique à l'échelle territoriale</v>
       </c>
-      <c r="E24" s="61" t="str">
+      <c r="E24" s="58" t="str">
         <f>Indicateurs!H34</f>
         <v>Non</v>
       </c>
-      <c r="F24" s="59" t="str">
+      <c r="F24" s="57" t="str">
         <f>Indicateurs!G34</f>
         <v>-</v>
       </c>
-      <c r="G24" s="59" t="str">
+      <c r="G24" s="57" t="str">
         <f>Indicateurs!I34</f>
         <v>Interne</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="59">
         <f>Indicateurs!K34</f>
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="59" t="str">
+      <c r="A25" s="57" t="str">
         <f>Indicateurs!C35</f>
         <v>Induits</v>
       </c>
-      <c r="B25" s="59" t="str">
+      <c r="B25" s="57" t="str">
         <f>Indicateurs!D35</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C25" s="59" t="str">
+      <c r="C25" s="57" t="str">
         <f>Indicateurs!E35</f>
         <v>Subsistance </v>
       </c>
-      <c r="D25" s="59" t="str">
+      <c r="D25" s="57" t="str">
         <f>Indicateurs!F35</f>
         <v xml:space="preserve">Part des emplois de la sphère présentielle</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="58">
         <f>Indicateurs!H35</f>
         <v>0</v>
       </c>
-      <c r="F25" s="59" t="str">
+      <c r="F25" s="57" t="str">
         <f>Indicateurs!G35</f>
         <v>%</v>
       </c>
-      <c r="G25" s="59" t="str">
+      <c r="G25" s="57" t="str">
         <f>Indicateurs!I35</f>
         <v>Interne</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="59">
         <f>Indicateurs!K35</f>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="59" t="str">
+      <c r="A26" s="57" t="str">
         <f>Indicateurs!C36</f>
         <v>Induits</v>
       </c>
-      <c r="B26" s="59" t="str">
+      <c r="B26" s="57" t="str">
         <f>Indicateurs!D36</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C26" s="59" t="str">
+      <c r="C26" s="57" t="str">
         <f>Indicateurs!E36</f>
         <v xml:space="preserve">Gestion de crise</v>
       </c>
-      <c r="D26" s="59" t="str">
+      <c r="D26" s="57" t="str">
         <f>Indicateurs!F36</f>
         <v xml:space="preserve">Part des emplois jugés "à risque" dans un contexte de transition énergétique</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="58">
         <f>Indicateurs!H36</f>
         <v>0</v>
       </c>
-      <c r="F26" s="59" t="str">
+      <c r="F26" s="57" t="str">
         <f>Indicateurs!G36</f>
         <v>%</v>
       </c>
-      <c r="G26" s="59" t="str">
+      <c r="G26" s="57" t="str">
         <f>Indicateurs!I36</f>
         <v xml:space="preserve">Statistiques-locales INSEE ; Open data</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="59">
         <f>Indicateurs!K36</f>
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="59" t="str">
+      <c r="A27" s="57" t="str">
         <f>Indicateurs!C37</f>
         <v>Induits</v>
       </c>
-      <c r="B27" s="59" t="str">
+      <c r="B27" s="57" t="str">
         <f>Indicateurs!D37</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C27" s="59" t="str">
+      <c r="C27" s="57" t="str">
         <f>Indicateurs!E37</f>
         <v>Transformation</v>
       </c>
-      <c r="D27" s="59" t="str">
+      <c r="D27" s="57" t="str">
         <f>Indicateurs!F37</f>
         <v xml:space="preserve">Indicateur de dépendance économique</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="58">
         <f>Indicateurs!H37</f>
         <v>0</v>
       </c>
-      <c r="F27" s="59" t="str">
+      <c r="F27" s="57" t="str">
         <f>Indicateurs!G37</f>
         <v>-</v>
       </c>
-      <c r="G27" s="59" t="str">
+      <c r="G27" s="57" t="str">
         <f>Indicateurs!I37</f>
         <v xml:space="preserve">Plateforme ODDetT ; Open data</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="59">
         <f>Indicateurs!K37</f>
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="59" t="str">
+      <c r="A28" s="57" t="str">
         <f>Indicateurs!C38</f>
         <v>Induits</v>
       </c>
-      <c r="B28" s="59" t="str">
+      <c r="B28" s="57" t="str">
         <f>Indicateurs!D38</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C28" s="59" t="str">
+      <c r="C28" s="57" t="str">
         <f>Indicateurs!E38</f>
         <v>Transformation</v>
       </c>
-      <c r="D28" s="59" t="str">
+      <c r="D28" s="57" t="str">
         <f>Indicateurs!F38</f>
         <v xml:space="preserve">Part des emplois dans l’économie sociale et solidaire dans l'ensemble de l'économie</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="58">
         <f>Indicateurs!H38</f>
         <v>0</v>
       </c>
-      <c r="F28" s="59" t="str">
+      <c r="F28" s="57" t="str">
         <f>Indicateurs!G38</f>
         <v>%</v>
       </c>
-      <c r="G28" s="59" t="str">
+      <c r="G28" s="57" t="str">
         <f>Indicateurs!I38</f>
         <v>Interne</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="59">
         <f>Indicateurs!K38</f>
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="59" t="str">
+      <c r="A29" s="57" t="str">
         <f>Indicateurs!C39</f>
         <v>Induits</v>
       </c>
-      <c r="B29" s="59" t="str">
+      <c r="B29" s="57" t="str">
         <f>Indicateurs!D39</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C29" s="59" t="str">
+      <c r="C29" s="57" t="str">
         <f>Indicateurs!E39</f>
         <v>Transformation</v>
       </c>
-      <c r="D29" s="59" t="str">
+      <c r="D29" s="57" t="str">
         <f>Indicateurs!F39</f>
         <v xml:space="preserve">Part de la surface agricole utile sur la surface totale du territoire</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="58">
         <f>Indicateurs!H39</f>
         <v>0</v>
       </c>
-      <c r="F29" s="59" t="str">
+      <c r="F29" s="57" t="str">
         <f>Indicateurs!G39</f>
         <v>%</v>
       </c>
-      <c r="G29" s="59" t="str">
+      <c r="G29" s="57" t="str">
         <f>Indicateurs!I39</f>
         <v xml:space="preserve">Data-asso.fr ; Open data</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="59">
         <f>Indicateurs!K39</f>
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="59" t="str">
+      <c r="A30" s="57" t="str">
         <f>Indicateurs!C40</f>
         <v>Induits</v>
       </c>
-      <c r="B30" s="59" t="str">
+      <c r="B30" s="57" t="str">
         <f>Indicateurs!D40</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C30" s="59" t="str">
+      <c r="C30" s="57" t="str">
         <f>Indicateurs!E40</f>
         <v>Transformation</v>
       </c>
-      <c r="D30" s="59" t="str">
+      <c r="D30" s="57" t="str">
         <f>Indicateurs!F40</f>
         <v xml:space="preserve">Taux de valorisation matière et organique des déchets ménagers et assimilés</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="58">
         <f>Indicateurs!H40</f>
         <v>0</v>
       </c>
-      <c r="F30" s="59" t="str">
+      <c r="F30" s="57" t="str">
         <f>Indicateurs!G40</f>
         <v>%</v>
       </c>
-      <c r="G30" s="59" t="str">
+      <c r="G30" s="57" t="str">
         <f>Indicateurs!I40</f>
         <v>Interne</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="59">
         <f>Indicateurs!K40</f>
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="59" t="str">
+      <c r="A31" s="57" t="str">
         <f>Indicateurs!C41</f>
         <v>Induits</v>
       </c>
-      <c r="B31" s="59" t="str">
+      <c r="B31" s="57" t="str">
         <f>Indicateurs!D41</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C31" s="59" t="str">
+      <c r="C31" s="57" t="str">
         <f>Indicateurs!E41</f>
         <v>Transformation</v>
       </c>
-      <c r="D31" s="59" t="str">
+      <c r="D31" s="57" t="str">
         <f>Indicateurs!F41</f>
         <v xml:space="preserve">Existence d’une monnaie locale</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="58">
         <f>Indicateurs!H41</f>
         <v>0</v>
       </c>
-      <c r="F31" s="59" t="str">
+      <c r="F31" s="57" t="str">
         <f>Indicateurs!G41</f>
         <v>-</v>
       </c>
-      <c r="G31" s="59" t="str">
+      <c r="G31" s="57" t="str">
         <f>Indicateurs!I41</f>
         <v>Interne</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="59">
         <f>Indicateurs!K41</f>
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="59" t="str">
+      <c r="A32" s="57" t="str">
         <f>Indicateurs!C42</f>
         <v>Induits</v>
       </c>
-      <c r="B32" s="59" t="str">
+      <c r="B32" s="57" t="str">
         <f>Indicateurs!D42</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C32" s="59" t="str">
+      <c r="C32" s="57" t="str">
         <f>Indicateurs!E42</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D32" s="59" t="str">
+      <c r="D32" s="57" t="str">
         <f>Indicateurs!F42</f>
         <v xml:space="preserve">Part des achats publics intégrant une considération environnementale</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="58">
         <f>Indicateurs!H42</f>
         <v>0</v>
       </c>
-      <c r="F32" s="59" t="str">
+      <c r="F32" s="57" t="str">
         <f>Indicateurs!G42</f>
         <v>%</v>
       </c>
-      <c r="G32" s="59" t="str">
+      <c r="G32" s="57" t="str">
         <f>Indicateurs!I42</f>
         <v>Interne</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="59">
         <f>Indicateurs!K42</f>
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="59" t="str">
+      <c r="A33" s="57" t="str">
         <f>Indicateurs!C43</f>
         <v>Induits</v>
       </c>
-      <c r="B33" s="59" t="str">
+      <c r="B33" s="57" t="str">
         <f>Indicateurs!D43</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C33" s="59" t="str">
+      <c r="C33" s="57" t="str">
         <f>Indicateurs!E43</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D33" s="59" t="str">
+      <c r="D33" s="57" t="str">
         <f>Indicateurs!F43</f>
         <v xml:space="preserve">Émissions territoriales de gaz à effet de serre par habitant</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="58">
         <f>Indicateurs!H43</f>
         <v>0</v>
       </c>
-      <c r="F33" s="59" t="str">
+      <c r="F33" s="57" t="str">
         <f>Indicateurs!G43</f>
         <v>teqCO2/hab</v>
       </c>
-      <c r="G33" s="59" t="str">
+      <c r="G33" s="57" t="str">
         <f>Indicateurs!I43</f>
         <v>Interne</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="59">
         <f>Indicateurs!K43</f>
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="59" t="str">
+      <c r="A34" s="57" t="str">
         <f>Indicateurs!C44</f>
         <v>Induits</v>
       </c>
-      <c r="B34" s="59" t="str">
+      <c r="B34" s="57" t="str">
         <f>Indicateurs!D44</f>
         <v xml:space="preserve">Produire et nous approvisionner localement</v>
       </c>
-      <c r="C34" s="59" t="str">
+      <c r="C34" s="57" t="str">
         <f>Indicateurs!E44</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D34" s="59" t="str">
+      <c r="D34" s="57" t="str">
         <f>Indicateurs!F44</f>
         <v xml:space="preserve">Existence d’une tarification incitative sur la collecte des déchets</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="58">
         <f>Indicateurs!H44</f>
         <v>0</v>
       </c>
-      <c r="F34" s="59" t="str">
+      <c r="F34" s="57" t="str">
         <f>Indicateurs!G44</f>
         <v>-</v>
       </c>
-      <c r="G34" s="59" t="str">
+      <c r="G34" s="57" t="str">
         <f>Indicateurs!I44</f>
         <v>INSEE</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="59">
         <f>Indicateurs!K44</f>
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="59" t="str">
+      <c r="A35" s="57" t="str">
         <f>Indicateurs!C45</f>
         <v>Induits</v>
       </c>
-      <c r="B35" s="59" t="str">
+      <c r="B35" s="57" t="str">
         <f>Indicateurs!D45</f>
         <v xml:space="preserve">Avoir accès à l'énergie</v>
       </c>
-      <c r="C35" s="59" t="str">
+      <c r="C35" s="57" t="str">
         <f>Indicateurs!E45</f>
         <v xml:space="preserve">Gestion de crise</v>
       </c>
-      <c r="D35" s="59" t="str">
+      <c r="D35" s="57" t="str">
         <f>Indicateurs!F45</f>
         <v xml:space="preserve">Existence de capacités énergétiques de back up pour les infrastructures critiques</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="58">
         <f>Indicateurs!H45</f>
         <v>0</v>
       </c>
-      <c r="F35" s="59" t="str">
+      <c r="F35" s="57" t="str">
         <f>Indicateurs!G45</f>
         <v>-</v>
       </c>
-      <c r="G35" s="59" t="str">
+      <c r="G35" s="57" t="str">
         <f>Indicateurs!I45</f>
         <v xml:space="preserve">Direction de l'intelligence territoriale et de la prospective ; Pôle DATAR ; Région Nouvelle-Aquitaine</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="59">
         <f>Indicateurs!K45</f>
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="59" t="str">
+      <c r="A36" s="57" t="str">
         <f>Indicateurs!C46</f>
         <v>Induits</v>
       </c>
-      <c r="B36" s="59" t="str">
+      <c r="B36" s="57" t="str">
         <f>Indicateurs!D46</f>
         <v xml:space="preserve">Avoir accès à l'énergie</v>
       </c>
-      <c r="C36" s="59" t="str">
+      <c r="C36" s="57" t="str">
         <f>Indicateurs!E46</f>
         <v>Transformation</v>
       </c>
-      <c r="D36" s="59" t="str">
+      <c r="D36" s="57" t="str">
         <f>Indicateurs!F46</f>
         <v xml:space="preserve">Consommation énergétique par habitant, hors secteur industriel</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="58">
         <f>Indicateurs!H46</f>
         <v>0</v>
       </c>
-      <c r="F36" s="59" t="str">
+      <c r="F36" s="57" t="str">
         <f>Indicateurs!G46</f>
         <v>MWh/hab</v>
       </c>
-      <c r="G36" s="59" t="str">
+      <c r="G36" s="57" t="str">
         <f>Indicateurs!I46</f>
         <v xml:space="preserve">Observatoire des territoires ; Open data</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="59">
         <f>Indicateurs!K46</f>
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="59" t="str">
+      <c r="A37" s="57" t="str">
         <f>Indicateurs!C47</f>
         <v>Induits</v>
       </c>
-      <c r="B37" s="59" t="str">
+      <c r="B37" s="57" t="str">
         <f>Indicateurs!D47</f>
         <v xml:space="preserve">Avoir accès à l'énergie</v>
       </c>
-      <c r="C37" s="59" t="str">
+      <c r="C37" s="57" t="str">
         <f>Indicateurs!E47</f>
         <v>Transformation</v>
       </c>
-      <c r="D37" s="59" t="str">
+      <c r="D37" s="57" t="str">
         <f>Indicateurs!F47</f>
         <v xml:space="preserve">Taux de couverture des besoins en électricité / en chaleur / en gaz par les capacités de production énergétiques locales</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="58">
         <f>Indicateurs!H47</f>
         <v>0</v>
       </c>
-      <c r="F37" s="59" t="str">
+      <c r="F37" s="57" t="str">
         <f>Indicateurs!G47</f>
         <v>%</v>
       </c>
-      <c r="G37" s="59" t="str">
+      <c r="G37" s="57" t="str">
         <f>Indicateurs!I47</f>
         <v xml:space="preserve">Territoires au Futur, Shift Project</v>
       </c>
-      <c r="H37" s="62">
+      <c r="H37" s="59">
         <f>Indicateurs!K47</f>
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="59" t="str">
+      <c r="A38" s="57" t="str">
         <f>Indicateurs!C48</f>
         <v>Induits</v>
       </c>
-      <c r="B38" s="59" t="str">
+      <c r="B38" s="57" t="str">
         <f>Indicateurs!D48</f>
         <v xml:space="preserve">Avoir accès à l'énergie</v>
       </c>
-      <c r="C38" s="59" t="str">
+      <c r="C38" s="57" t="str">
         <f>Indicateurs!E48</f>
         <v>Transformation</v>
       </c>
-      <c r="D38" s="59" t="str">
+      <c r="D38" s="57" t="str">
         <f>Indicateurs!F48</f>
         <v xml:space="preserve">Existence d'un schéma directeur des énergies </v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="58">
         <f>Indicateurs!H48</f>
         <v>0</v>
       </c>
-      <c r="F38" s="59" t="str">
+      <c r="F38" s="57" t="str">
         <f>Indicateurs!G48</f>
         <v>-</v>
       </c>
-      <c r="G38" s="59" t="str">
+      <c r="G38" s="57" t="str">
         <f>Indicateurs!I48</f>
         <v xml:space="preserve">Observatoire des territoires, ANCT, Open data</v>
       </c>
-      <c r="H38" s="62">
+      <c r="H38" s="59">
         <f>Indicateurs!K48</f>
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="59" t="str">
+      <c r="A39" s="57" t="str">
         <f>Indicateurs!C49</f>
         <v>Essentiels</v>
       </c>
-      <c r="B39" s="59" t="str">
+      <c r="B39" s="57" t="str">
         <f>Indicateurs!D49</f>
         <v xml:space="preserve">Nous informer et nous instruire</v>
       </c>
-      <c r="C39" s="59" t="str">
+      <c r="C39" s="57" t="str">
         <f>Indicateurs!E49</f>
         <v>Transformation</v>
       </c>
-      <c r="D39" s="59" t="str">
+      <c r="D39" s="57" t="str">
         <f>Indicateurs!F49</f>
         <v xml:space="preserve">Part des écoles et établissements engagés dans une démarche globale de développement durable (label E3D)</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="58">
         <f>Indicateurs!H49</f>
         <v>0.070000000000000007</v>
       </c>
-      <c r="F39" s="59" t="str">
+      <c r="F39" s="57" t="str">
         <f>Indicateurs!G49</f>
         <v>%</v>
       </c>
-      <c r="G39" s="59" t="str">
+      <c r="G39" s="57" t="str">
         <f>Indicateurs!I49</f>
         <v xml:space="preserve">ODDetT, open data</v>
       </c>
-      <c r="H39" s="62">
+      <c r="H39" s="59">
         <f>Indicateurs!K49</f>
         <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="59" t="str">
+      <c r="A40" s="57" t="str">
         <f>Indicateurs!C50</f>
         <v>Essentiels</v>
       </c>
-      <c r="B40" s="59" t="str">
+      <c r="B40" s="57" t="str">
         <f>Indicateurs!D50</f>
         <v xml:space="preserve">Nous informer et nous instruire</v>
       </c>
-      <c r="C40" s="59" t="str">
+      <c r="C40" s="57" t="str">
         <f>Indicateurs!E50</f>
         <v xml:space="preserve">Gestion de crise</v>
       </c>
-      <c r="D40" s="59" t="str">
+      <c r="D40" s="57" t="str">
         <f>Indicateurs!F50</f>
         <v xml:space="preserve">Part des écoles enseignant la préparation aux situations d’urgence et la réduction des risques</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="58">
         <f>Indicateurs!H50</f>
         <v>0.10000000000000001</v>
       </c>
-      <c r="F40" s="59" t="str">
+      <c r="F40" s="57" t="str">
         <f>Indicateurs!G50</f>
         <v>%</v>
       </c>
-      <c r="G40" s="59" t="str">
+      <c r="G40" s="57" t="str">
         <f>Indicateurs!I50</f>
         <v xml:space="preserve">Observatoie des Territoires ; Open data</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="59">
         <f>Indicateurs!K50</f>
         <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="59" t="str">
+      <c r="A41" s="57" t="str">
         <f>Indicateurs!C51</f>
         <v>Essentiels</v>
       </c>
-      <c r="B41" s="59" t="str">
+      <c r="B41" s="57" t="str">
         <f>Indicateurs!D51</f>
         <v xml:space="preserve">Nous informer et nous instruire</v>
       </c>
-      <c r="C41" s="59" t="str">
+      <c r="C41" s="57" t="str">
         <f>Indicateurs!E51</f>
         <v>Transformation</v>
       </c>
-      <c r="D41" s="59" t="str">
+      <c r="D41" s="57" t="str">
         <f>Indicateurs!F51</f>
         <v xml:space="preserve">Nombre d’évènements socio-culturels relatifs aux enjeux de transition écologique par année</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="58">
         <f>Indicateurs!H51</f>
         <v>0.34999999999999998</v>
       </c>
-      <c r="F41" s="59" t="str">
+      <c r="F41" s="57" t="str">
         <f>Indicateurs!G51</f>
         <v>%</v>
       </c>
-      <c r="G41" s="59" t="str">
+      <c r="G41" s="57" t="str">
         <f>Indicateurs!I51</f>
         <v xml:space="preserve">INSEE, Statistiques locales</v>
       </c>
-      <c r="H41" s="62">
+      <c r="H41" s="59">
         <f>Indicateurs!K51</f>
         <v>0.34999999999999998</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="59" t="str">
+      <c r="A42" s="57" t="str">
         <f>Indicateurs!C52</f>
         <v>Essentiels</v>
       </c>
-      <c r="B42" s="59" t="str">
+      <c r="B42" s="57" t="str">
         <f>Indicateurs!D52</f>
         <v xml:space="preserve">Vivre ensemble et faire société</v>
       </c>
-      <c r="C42" s="59" t="str">
+      <c r="C42" s="57" t="str">
         <f>Indicateurs!E52</f>
         <v>Transformation</v>
       </c>
-      <c r="D42" s="59" t="str">
+      <c r="D42" s="57" t="str">
         <f>Indicateurs!F52</f>
         <v xml:space="preserve">Taux de participation aux dernières élections locales</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="58">
         <f>Indicateurs!H52</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F42" s="59" t="str">
+      <c r="F42" s="57" t="str">
         <f>Indicateurs!G52</f>
         <v>%</v>
       </c>
-      <c r="G42" s="59" t="str">
+      <c r="G42" s="57" t="str">
         <f>Indicateurs!I52</f>
         <v xml:space="preserve">MLCC.fr, Linfodurable.fr</v>
       </c>
-      <c r="H42" s="62">
+      <c r="H42" s="59">
         <f>Indicateurs!K52</f>
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="59" t="str">
+      <c r="A43" s="57" t="str">
         <f>Indicateurs!C53</f>
         <v>Essentiels</v>
       </c>
-      <c r="B43" s="59" t="str">
+      <c r="B43" s="57" t="str">
         <f>Indicateurs!D53</f>
         <v xml:space="preserve">Nous informer et nous instruire</v>
       </c>
-      <c r="C43" s="59" t="str">
+      <c r="C43" s="57" t="str">
         <f>Indicateurs!E53</f>
         <v>Subsistance</v>
       </c>
-      <c r="D43" s="59" t="str">
+      <c r="D43" s="57" t="str">
         <f>Indicateurs!F53</f>
         <v xml:space="preserve">Nombre de librairies</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="58">
         <f>Indicateurs!H53</f>
         <v>1.2</v>
       </c>
-      <c r="F43" s="59" t="str">
+      <c r="F43" s="57" t="str">
         <f>Indicateurs!G53</f>
         <v xml:space="preserve">/ 1000</v>
       </c>
-      <c r="G43" s="59" t="str">
+      <c r="G43" s="57" t="str">
         <f>Indicateurs!I53</f>
         <v>Interne</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="59">
         <f>Indicateurs!K53</f>
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="59" t="str">
+      <c r="A44" s="57" t="str">
         <f>Indicateurs!C54</f>
         <v>Essentiels</v>
       </c>
-      <c r="B44" s="59" t="str">
+      <c r="B44" s="57" t="str">
         <f>Indicateurs!D54</f>
         <v xml:space="preserve">Vivre ensemble et faire société</v>
       </c>
-      <c r="C44" s="59" t="str">
+      <c r="C44" s="57" t="str">
         <f>Indicateurs!E54</f>
         <v>Subsistance</v>
       </c>
-      <c r="D44" s="59" t="str">
+      <c r="D44" s="57" t="str">
         <f>Indicateurs!F54</f>
         <v xml:space="preserve">Différence entre le taux d'emploi des femmes et des hommes</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="58">
         <f>Indicateurs!H54</f>
         <v>1.5</v>
       </c>
-      <c r="F44" s="59" t="str">
+      <c r="F44" s="57" t="str">
         <f>Indicateurs!G54</f>
         <v>-</v>
       </c>
-      <c r="G44" s="59" t="str">
+      <c r="G44" s="57" t="str">
         <f>Indicateurs!I54</f>
         <v>Interne</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="59">
         <f>Indicateurs!K54</f>
         <v>0.94999999999999996</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="59" t="str">
+      <c r="A45" s="57" t="str">
         <f>Indicateurs!C55</f>
         <v>Essentiels</v>
       </c>
-      <c r="B45" s="59" t="str">
+      <c r="B45" s="57" t="str">
         <f>Indicateurs!D55</f>
         <v xml:space="preserve">Vivre ensemble et faire société</v>
       </c>
-      <c r="C45" s="59" t="str">
+      <c r="C45" s="57" t="str">
         <f>Indicateurs!E55</f>
         <v>Transformation</v>
       </c>
-      <c r="D45" s="59" t="str">
+      <c r="D45" s="57" t="str">
         <f>Indicateurs!F55</f>
         <v xml:space="preserve">Nombre d'associations</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="58">
         <f>Indicateurs!H55</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="F45" s="59" t="str">
+      <c r="F45" s="57" t="str">
         <f>Indicateurs!G55</f>
         <v xml:space="preserve">/ 1000 habitants</v>
       </c>
-      <c r="G45" s="59" t="str">
+      <c r="G45" s="57" t="str">
         <f>Indicateurs!I55</f>
         <v>Interne</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="59">
         <f>Indicateurs!K55</f>
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="59" t="str">
+      <c r="A46" s="57" t="str">
         <f>Indicateurs!C56</f>
         <v>Essentiels</v>
       </c>
-      <c r="B46" s="59" t="str">
+      <c r="B46" s="57" t="str">
         <f>Indicateurs!D56</f>
         <v xml:space="preserve">Vivre ensemble et faire société</v>
       </c>
-      <c r="C46" s="59" t="str">
+      <c r="C46" s="57" t="str">
         <f>Indicateurs!E56</f>
         <v>Transformation</v>
       </c>
-      <c r="D46" s="59" t="str">
+      <c r="D46" s="57" t="str">
         <f>Indicateurs!F56</f>
         <v xml:space="preserve">Nombre d'évènements locaux liés à l'identité du territoire par an</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="58">
         <f>Indicateurs!H56</f>
         <v>3</v>
       </c>
-      <c r="F46" s="59" t="str">
+      <c r="F46" s="57" t="str">
         <f>Indicateurs!G56</f>
         <v>nb/an</v>
       </c>
-      <c r="G46" s="59" t="str">
+      <c r="G46" s="57" t="str">
         <f>Indicateurs!I56</f>
         <v>Interne</v>
       </c>
-      <c r="H46" s="62">
+      <c r="H46" s="59">
         <f>Indicateurs!K56</f>
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="59" t="str">
+      <c r="A47" s="57" t="str">
         <f>Indicateurs!C57</f>
         <v>Essentiels</v>
       </c>
-      <c r="B47" s="59" t="str">
+      <c r="B47" s="57" t="str">
         <f>Indicateurs!D57</f>
         <v xml:space="preserve">Nous informer et nous instruire</v>
       </c>
-      <c r="C47" s="59" t="str">
+      <c r="C47" s="57" t="str">
         <f>Indicateurs!E57</f>
         <v>Soutenabilité</v>
       </c>
-      <c r="D47" s="59" t="str">
+      <c r="D47" s="57" t="str">
         <f>Indicateurs!F57</f>
         <v xml:space="preserve">Existence d’un dispositif d’éco-conditionnalité des aides publiques auprès des acteurs associatifs</v>
       </c>
-      <c r="E47" s="61" t="str">
+      <c r="E47" s="58" t="str">
         <f>Indicateurs!H57</f>
         <v>Non</v>
       </c>
-      <c r="F47" s="59" t="str">
+      <c r="F47" s="57" t="str">
         <f>Indicateurs!G57</f>
         <v>-</v>
       </c>
-      <c r="G47" s="59" t="str">
+      <c r="G47" s="57" t="str">
         <f>Indicateurs!I57</f>
         <v xml:space="preserve">Interne (PCAET), Terristory, open data</v>
       </c>
-      <c r="H47" s="62">
+      <c r="H47" s="59">
         <f>Indicateurs!K57</f>
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="59" t="str">
+      <c r="A48" s="57" t="str">
         <f>Indicateurs!C58</f>
         <v>Essentiels</v>
       </c>
-      <c r="B48" s="59" t="str">
+      <c r="B48" s="57" t="str">
         <f>Indicateurs!D58</f>
         <v xml:space="preserve">Vivre ensemble et faire société</v>
       </c>
-      <c r="C48" s="59" t="str">
+      <c r="C48" s="57" t="str">
         <f>Indicateurs!E58</f>
         <v>Transformation</v>
       </c>
-      <c r="D48" s="59" t="str">
+      <c r="D48" s="57" t="str">
         <f>Indicateurs!F58</f>
         <v xml:space="preserve">Existence d'une instance de gouvernance citoyenne</v>
       </c>
-      <c r="E48" s="61" t="str">
+      <c r="E48" s="58" t="str">
         <f>Indicateurs!H58</f>
         <v>Non</v>
       </c>
-      <c r="F48" s="59" t="str">
+      <c r="F48" s="57" t="str">
         <f>Indicateurs!G58</f>
         <v>-</v>
       </c>
-      <c r="G48" s="59" t="str">
+      <c r="G48" s="57" t="str">
         <f>Indicateurs!I58</f>
         <v xml:space="preserve">Terristory, open data, PCAET</v>
       </c>
-      <c r="H48" s="62">
+      <c r="H48" s="59">
         <f>Indicateurs!K58</f>
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="59" t="str">
+      <c r="A49" s="57" t="str">
         <f>Indicateurs!C59</f>
         <v>Essentiels</v>
       </c>
-      <c r="B49" s="59" t="str">
+      <c r="B49" s="57" t="str">
         <f>Indicateurs!D59</f>
         <v xml:space="preserve">Vivre ensemble et faire société</v>
       </c>
-      <c r="C49" s="59" t="str">
+      <c r="C49" s="57" t="str">
         <f>Indicateurs!E59</f>
         <v>Subsistance</v>
       </c>
-      <c r="D49" s="59" t="str">
+      <c r="D49" s="57" t="str">
         <f>Indicateurs!F59</f>
         <v xml:space="preserve">Rapport interdécile du niveau de vie (9e décile / 1er décile) </v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="58">
         <f>Indicateurs!H59</f>
         <v>0</v>
       </c>
-      <c r="F49" s="59" t="str">
+      <c r="F49" s="57" t="str">
         <f>Indicateurs!G59</f>
         <v>-</v>
       </c>
-      <c r="G49" s="59" t="str">
+      <c r="G49" s="57" t="str">
         <f>Indicateurs!I59</f>
         <v xml:space="preserve">Interne (PCAET), Terristory, open data</v>
       </c>
-      <c r="H49" s="62">
+      <c r="H49" s="59">
         <f>Indicateurs!K59</f>
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="59" t="str">
+      <c r="A50" s="57" t="str">
         <f>Indicateurs!C60</f>
         <v>Essentiels</v>
       </c>
-      <c r="B50" s="59" t="str">
+      <c r="B50" s="57" t="str">
         <f>Indicateurs!D60</f>
         <v xml:space="preserve">Vivre ensemble et faire société</v>
       </c>
-      <c r="C50" s="59" t="str">
+      <c r="C50" s="57" t="str">
         <f>Indicateurs!E60</f>
         <v>Subsistance</v>
       </c>
-      <c r="D50" s="59" t="str">
+      <c r="D50" s="57" t="str">
         <f>Indicateurs!F60</f>
         <v xml:space="preserve">Part des communes couvertes par au moins un établissement de chacune des 5 catégories d’établissements d’action sociale</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="58">
         <f>Indicateurs!H60</f>
         <v>0</v>
       </c>
-      <c r="F50" s="59" t="str">
+      <c r="F50" s="57" t="str">
         <f>Indicateurs!G60</f>
         <v>%</v>
       </c>
-      <c r="G50" s="59" t="str">
+      <c r="G50" s="57" t="str">
         <f>Indicateurs!I60</f>
         <v>Interne</v>
       </c>
-      <c r="H50" s="62">
+      <c r="H50" s="59">
         <f>Indicateurs!K60</f>
         <v>0</v>
       </c>
@@ -5600,7 +5586,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="36.00390625"/>
     <col customWidth="1" min="2" max="2" width="91.28125"/>
@@ -5650,7 +5636,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="57" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
@@ -5658,16 +5644,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8"/>
-    </row>
+    <row r="8"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/mkdocs/media/Diag360_Indicateurs.xlsx
+++ b/mkdocs/media/Diag360_Indicateurs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" state="visible" r:id="rId1"/>
@@ -1732,7 +1732,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3779,6 +3779,7 @@
       <c r="K62" s="56"/>
     </row>
   </sheetData>
+  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <autoFilter ref="C11:I61"/>
   <mergeCells count="5">
     <mergeCell ref="D2:F2"/>
@@ -3820,7 +3821,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005300DC-00F1-4263-931E-004600F100B3}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00760094-0010-47D8-B6D8-00DB00150098}">
             <xm:f>""</xm:f>
             <x14:dxf>
               <font>
@@ -3837,7 +3838,7 @@
           <xm:sqref>H13:H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000F006F-0088-4808-B045-00AD00250078}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00FB00B0-00DA-460F-838B-00BF0070001D}">
             <xm:f>""</xm:f>
             <x14:dxf>
               <font>
@@ -5572,6 +5573,7 @@
     </row>
     <row r="51"/>
   </sheetData>
+  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -5653,6 +5655,7 @@
     </row>
     <row r="8"/>
   </sheetData>
+  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
